--- a/Table/Table/TEST.xlsx
+++ b/Table/Table/TEST.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="126">
   <si>
     <t>client</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,7 +418,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,6 +439,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -761,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:R3"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -775,16 +782,66 @@
     <col min="5" max="5" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:18">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="2" spans="1:18">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -795,16 +852,36 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -813,6 +890,1539 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <v>8</v>
+      </c>
+      <c r="L25">
+        <v>8</v>
+      </c>
+      <c r="M25">
+        <v>8</v>
+      </c>
+      <c r="N25">
+        <v>8</v>
+      </c>
+      <c r="O25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" t="s">
+        <v>59</v>
+      </c>
+      <c r="J29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" t="s">
+        <v>67</v>
+      </c>
+      <c r="J33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34" t="s">
+        <v>69</v>
+      </c>
+      <c r="J34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" t="s">
+        <v>71</v>
+      </c>
+      <c r="J35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" t="s">
+        <v>73</v>
+      </c>
+      <c r="J36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" t="s">
+        <v>73</v>
+      </c>
+      <c r="I37" t="s">
+        <v>75</v>
+      </c>
+      <c r="J37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" t="s">
+        <v>77</v>
+      </c>
+      <c r="I39" t="s">
+        <v>79</v>
+      </c>
+      <c r="J39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s">
+        <v>81</v>
+      </c>
+      <c r="J40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s">
+        <v>81</v>
+      </c>
+      <c r="I41" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" t="s">
+        <v>83</v>
+      </c>
+      <c r="I42" t="s">
+        <v>85</v>
+      </c>
+      <c r="J42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43" t="s">
+        <v>85</v>
+      </c>
+      <c r="I43" t="s">
+        <v>87</v>
+      </c>
+      <c r="J43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>85</v>
+      </c>
+      <c r="H44" t="s">
+        <v>87</v>
+      </c>
+      <c r="I44" t="s">
+        <v>89</v>
+      </c>
+      <c r="J44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" t="s">
+        <v>89</v>
+      </c>
+      <c r="I45" t="s">
+        <v>91</v>
+      </c>
+      <c r="J45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" t="s">
+        <v>91</v>
+      </c>
+      <c r="I46" t="s">
+        <v>93</v>
+      </c>
+      <c r="J46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" t="s">
+        <v>93</v>
+      </c>
+      <c r="I47" t="s">
+        <v>95</v>
+      </c>
+      <c r="J47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>93</v>
+      </c>
+      <c r="H48" t="s">
+        <v>95</v>
+      </c>
+      <c r="I48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+      <c r="G49" t="s">
+        <v>95</v>
+      </c>
+      <c r="H49" t="s">
+        <v>97</v>
+      </c>
+      <c r="I49" t="s">
+        <v>99</v>
+      </c>
+      <c r="J49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" t="s">
+        <v>99</v>
+      </c>
+      <c r="I50" t="s">
+        <v>101</v>
+      </c>
+      <c r="J50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="G51" t="s">
+        <v>99</v>
+      </c>
+      <c r="H51" t="s">
+        <v>101</v>
+      </c>
+      <c r="I51" t="s">
+        <v>103</v>
+      </c>
+      <c r="J51" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -825,8 +2435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1222,7 +2832,7 @@
     </row>
     <row r="11" spans="1:43">
       <c r="A11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -1254,7 +2864,7 @@
     </row>
     <row r="12" spans="1:43">
       <c r="A12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -1286,7 +2896,7 @@
     </row>
     <row r="13" spans="1:43">
       <c r="A13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -1318,7 +2928,7 @@
     </row>
     <row r="14" spans="1:43">
       <c r="A14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -1350,7 +2960,7 @@
     </row>
     <row r="15" spans="1:43">
       <c r="A15">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -1382,7 +2992,7 @@
     </row>
     <row r="16" spans="1:43">
       <c r="A16">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -1414,7 +3024,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -1446,7 +3056,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -1478,7 +3088,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -1510,7 +3120,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -1542,7 +3152,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -1574,7 +3184,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -1606,7 +3216,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -1638,7 +3248,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -1670,7 +3280,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -1702,7 +3312,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -1734,7 +3344,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -1766,7 +3376,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -1798,7 +3408,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -1830,7 +3440,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -1862,7 +3472,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -1894,7 +3504,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -1926,7 +3536,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -1958,7 +3568,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -1990,7 +3600,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -2022,7 +3632,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -2054,7 +3664,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -2086,7 +3696,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -2118,7 +3728,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B39">
         <v>5</v>
@@ -2150,7 +3760,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -2182,7 +3792,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -2214,7 +3824,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -2246,7 +3856,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -2278,7 +3888,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -2310,7 +3920,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -2342,7 +3952,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -2374,7 +3984,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B47">
         <v>5</v>
@@ -2406,7 +4016,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B48">
         <v>5</v>
@@ -2438,7 +4048,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B49">
         <v>5</v>
@@ -2470,7 +4080,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -2501,6 +4111,9 @@
       </c>
     </row>
     <row r="51" spans="1:10">
+      <c r="A51">
+        <v>47</v>
+      </c>
       <c r="G51" t="s">
         <v>99</v>
       </c>
@@ -2523,10 +4136,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:R3"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2536,16 +4149,66 @@
     <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:18">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="2" spans="1:18">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -2556,16 +4219,36 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -2575,8 +4258,3160 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" t="s">
+        <v>59</v>
+      </c>
+      <c r="J29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" t="s">
+        <v>67</v>
+      </c>
+      <c r="J33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34" t="s">
+        <v>69</v>
+      </c>
+      <c r="J34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" t="s">
+        <v>71</v>
+      </c>
+      <c r="J35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" t="s">
+        <v>73</v>
+      </c>
+      <c r="J36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" t="s">
+        <v>73</v>
+      </c>
+      <c r="I37" t="s">
+        <v>75</v>
+      </c>
+      <c r="J37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" t="s">
+        <v>77</v>
+      </c>
+      <c r="I39" t="s">
+        <v>79</v>
+      </c>
+      <c r="J39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s">
+        <v>81</v>
+      </c>
+      <c r="J40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s">
+        <v>81</v>
+      </c>
+      <c r="I41" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" t="s">
+        <v>83</v>
+      </c>
+      <c r="I42" t="s">
+        <v>85</v>
+      </c>
+      <c r="J42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43" t="s">
+        <v>85</v>
+      </c>
+      <c r="I43" t="s">
+        <v>87</v>
+      </c>
+      <c r="J43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>85</v>
+      </c>
+      <c r="H44" t="s">
+        <v>87</v>
+      </c>
+      <c r="I44" t="s">
+        <v>89</v>
+      </c>
+      <c r="J44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" t="s">
+        <v>89</v>
+      </c>
+      <c r="I45" t="s">
+        <v>91</v>
+      </c>
+      <c r="J45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" t="s">
+        <v>91</v>
+      </c>
+      <c r="I46" t="s">
+        <v>93</v>
+      </c>
+      <c r="J46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" t="s">
+        <v>93</v>
+      </c>
+      <c r="I47" t="s">
+        <v>95</v>
+      </c>
+      <c r="J47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>93</v>
+      </c>
+      <c r="H48" t="s">
+        <v>95</v>
+      </c>
+      <c r="I48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+      <c r="G49" t="s">
+        <v>95</v>
+      </c>
+      <c r="H49" t="s">
+        <v>97</v>
+      </c>
+      <c r="I49" t="s">
+        <v>99</v>
+      </c>
+      <c r="J49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" t="s">
+        <v>99</v>
+      </c>
+      <c r="I50" t="s">
+        <v>101</v>
+      </c>
+      <c r="J50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="G51" t="s">
+        <v>99</v>
+      </c>
+      <c r="H51" t="s">
+        <v>101</v>
+      </c>
+      <c r="I51" t="s">
+        <v>103</v>
+      </c>
+      <c r="J51" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" t="s">
+        <v>59</v>
+      </c>
+      <c r="J29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" t="s">
+        <v>67</v>
+      </c>
+      <c r="J33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34" t="s">
+        <v>69</v>
+      </c>
+      <c r="J34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" t="s">
+        <v>71</v>
+      </c>
+      <c r="J35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" t="s">
+        <v>73</v>
+      </c>
+      <c r="J36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" t="s">
+        <v>73</v>
+      </c>
+      <c r="I37" t="s">
+        <v>75</v>
+      </c>
+      <c r="J37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" t="s">
+        <v>77</v>
+      </c>
+      <c r="I39" t="s">
+        <v>79</v>
+      </c>
+      <c r="J39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s">
+        <v>81</v>
+      </c>
+      <c r="J40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s">
+        <v>81</v>
+      </c>
+      <c r="I41" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" t="s">
+        <v>83</v>
+      </c>
+      <c r="I42" t="s">
+        <v>85</v>
+      </c>
+      <c r="J42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43" t="s">
+        <v>85</v>
+      </c>
+      <c r="I43" t="s">
+        <v>87</v>
+      </c>
+      <c r="J43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>85</v>
+      </c>
+      <c r="H44" t="s">
+        <v>87</v>
+      </c>
+      <c r="I44" t="s">
+        <v>89</v>
+      </c>
+      <c r="J44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" t="s">
+        <v>89</v>
+      </c>
+      <c r="I45" t="s">
+        <v>91</v>
+      </c>
+      <c r="J45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" t="s">
+        <v>91</v>
+      </c>
+      <c r="I46" t="s">
+        <v>93</v>
+      </c>
+      <c r="J46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" t="s">
+        <v>93</v>
+      </c>
+      <c r="I47" t="s">
+        <v>95</v>
+      </c>
+      <c r="J47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>93</v>
+      </c>
+      <c r="H48" t="s">
+        <v>95</v>
+      </c>
+      <c r="I48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+      <c r="G49" t="s">
+        <v>95</v>
+      </c>
+      <c r="H49" t="s">
+        <v>97</v>
+      </c>
+      <c r="I49" t="s">
+        <v>99</v>
+      </c>
+      <c r="J49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" t="s">
+        <v>99</v>
+      </c>
+      <c r="I50" t="s">
+        <v>101</v>
+      </c>
+      <c r="J50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="G51" t="s">
+        <v>99</v>
+      </c>
+      <c r="H51" t="s">
+        <v>101</v>
+      </c>
+      <c r="I51" t="s">
+        <v>103</v>
+      </c>
+      <c r="J51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Table/Table/TEST.xlsx
+++ b/Table/Table/TEST.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="130">
   <si>
     <t>client</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,6 +412,21 @@
   <si>
     <t>int[6]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[7]</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fff0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5787,15 +5802,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J51"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5809,11 +5828,11 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
         <v>6</v>
       </c>
@@ -5823,8 +5842,11 @@
       <c r="J1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>115</v>
       </c>
@@ -5841,22 +5863,25 @@
         <v>108</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -5873,22 +5898,25 @@
         <v>124</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="J3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -5905,22 +5933,25 @@
         <v>119</v>
       </c>
       <c r="F4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" t="s">
         <v>120</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>121</v>
       </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
       <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
         <v>122</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5937,22 +5968,25 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
         <v>111</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>112</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>2</v>
       </c>
@@ -5969,22 +6003,25 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
         <v>112</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>11</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>3</v>
       </c>
@@ -6001,22 +6038,25 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>15</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>4</v>
       </c>
@@ -6033,22 +6073,25 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>15</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>17</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>5</v>
       </c>
@@ -6065,22 +6108,25 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>17</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>19</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>6</v>
       </c>
@@ -6097,22 +6143,25 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
         <v>17</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>19</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>21</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>7</v>
       </c>
@@ -6129,22 +6178,25 @@
         <v>8</v>
       </c>
       <c r="F11">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
         <v>19</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>21</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>23</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>8</v>
       </c>
@@ -6161,22 +6213,25 @@
         <v>8</v>
       </c>
       <c r="F12">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
         <v>21</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>23</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>25</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>9</v>
       </c>
@@ -6193,22 +6248,25 @@
         <v>8</v>
       </c>
       <c r="F13">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
         <v>23</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>25</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>27</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>10</v>
       </c>
@@ -6225,22 +6283,25 @@
         <v>8</v>
       </c>
       <c r="F14">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
         <v>25</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>27</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>29</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>11</v>
       </c>
@@ -6257,22 +6318,25 @@
         <v>8</v>
       </c>
       <c r="F15">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
         <v>27</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>29</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>31</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>12</v>
       </c>
@@ -6289,22 +6353,25 @@
         <v>8</v>
       </c>
       <c r="F16">
-        <v>9</v>
-      </c>
-      <c r="G16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
         <v>29</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>31</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>33</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>13</v>
       </c>
@@ -6321,22 +6388,25 @@
         <v>8</v>
       </c>
       <c r="F17">
-        <v>9</v>
-      </c>
-      <c r="G17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
         <v>31</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>33</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>35</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>14</v>
       </c>
@@ -6353,22 +6423,25 @@
         <v>8</v>
       </c>
       <c r="F18">
-        <v>9</v>
-      </c>
-      <c r="G18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
         <v>33</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>35</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>37</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>15</v>
       </c>
@@ -6385,22 +6458,25 @@
         <v>8</v>
       </c>
       <c r="F19">
-        <v>9</v>
-      </c>
-      <c r="G19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
         <v>35</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>37</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>39</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>16</v>
       </c>
@@ -6417,22 +6493,25 @@
         <v>8</v>
       </c>
       <c r="F20">
-        <v>9</v>
-      </c>
-      <c r="G20" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
         <v>37</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>39</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>41</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>17</v>
       </c>
@@ -6449,22 +6528,25 @@
         <v>8</v>
       </c>
       <c r="F21">
-        <v>9</v>
-      </c>
-      <c r="G21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
         <v>39</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>41</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>43</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>18</v>
       </c>
@@ -6481,22 +6563,25 @@
         <v>8</v>
       </c>
       <c r="F22">
-        <v>9</v>
-      </c>
-      <c r="G22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22">
+        <v>9</v>
+      </c>
+      <c r="H22" t="s">
         <v>41</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>43</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>45</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>19</v>
       </c>
@@ -6513,22 +6598,25 @@
         <v>8</v>
       </c>
       <c r="F23">
-        <v>9</v>
-      </c>
-      <c r="G23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
         <v>43</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>45</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>47</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>20</v>
       </c>
@@ -6545,22 +6633,25 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>9</v>
-      </c>
-      <c r="G24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24">
+        <v>9</v>
+      </c>
+      <c r="H24" t="s">
         <v>45</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>47</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>49</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>21</v>
       </c>
@@ -6577,22 +6668,25 @@
         <v>8</v>
       </c>
       <c r="F25">
-        <v>9</v>
-      </c>
-      <c r="G25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25">
+        <v>9</v>
+      </c>
+      <c r="H25" t="s">
         <v>47</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>49</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>51</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>22</v>
       </c>
@@ -6609,22 +6703,25 @@
         <v>8</v>
       </c>
       <c r="F26">
-        <v>9</v>
-      </c>
-      <c r="G26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+      <c r="H26" t="s">
         <v>49</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>51</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>53</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>23</v>
       </c>
@@ -6641,22 +6738,25 @@
         <v>8</v>
       </c>
       <c r="F27">
-        <v>9</v>
-      </c>
-      <c r="G27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s">
         <v>51</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>53</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>55</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>24</v>
       </c>
@@ -6673,22 +6773,25 @@
         <v>8</v>
       </c>
       <c r="F28">
-        <v>9</v>
-      </c>
-      <c r="G28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
         <v>53</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>55</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>57</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>25</v>
       </c>
@@ -6705,22 +6808,25 @@
         <v>8</v>
       </c>
       <c r="F29">
-        <v>9</v>
-      </c>
-      <c r="G29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29">
+        <v>9</v>
+      </c>
+      <c r="H29" t="s">
         <v>55</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>57</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>59</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>26</v>
       </c>
@@ -6737,22 +6843,25 @@
         <v>8</v>
       </c>
       <c r="F30">
-        <v>9</v>
-      </c>
-      <c r="G30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30">
+        <v>9</v>
+      </c>
+      <c r="H30" t="s">
         <v>57</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>59</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>61</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>27</v>
       </c>
@@ -6769,22 +6878,25 @@
         <v>8</v>
       </c>
       <c r="F31">
-        <v>9</v>
-      </c>
-      <c r="G31" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31">
+        <v>9</v>
+      </c>
+      <c r="H31" t="s">
         <v>59</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>61</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>63</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>28</v>
       </c>
@@ -6801,22 +6913,25 @@
         <v>8</v>
       </c>
       <c r="F32">
-        <v>9</v>
-      </c>
-      <c r="G32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32">
+        <v>9</v>
+      </c>
+      <c r="H32" t="s">
         <v>61</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>63</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>65</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>29</v>
       </c>
@@ -6833,22 +6948,25 @@
         <v>8</v>
       </c>
       <c r="F33">
-        <v>9</v>
-      </c>
-      <c r="G33" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33">
+        <v>9</v>
+      </c>
+      <c r="H33" t="s">
         <v>63</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>65</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>67</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>30</v>
       </c>
@@ -6865,22 +6983,25 @@
         <v>8</v>
       </c>
       <c r="F34">
-        <v>9</v>
-      </c>
-      <c r="G34" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34">
+        <v>9</v>
+      </c>
+      <c r="H34" t="s">
         <v>65</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>67</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>69</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>31</v>
       </c>
@@ -6897,22 +7018,25 @@
         <v>8</v>
       </c>
       <c r="F35">
-        <v>9</v>
-      </c>
-      <c r="G35" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35">
+        <v>9</v>
+      </c>
+      <c r="H35" t="s">
         <v>67</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>69</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>71</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>32</v>
       </c>
@@ -6929,22 +7053,25 @@
         <v>8</v>
       </c>
       <c r="F36">
-        <v>9</v>
-      </c>
-      <c r="G36" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36">
+        <v>9</v>
+      </c>
+      <c r="H36" t="s">
         <v>69</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>71</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>73</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>33</v>
       </c>
@@ -6961,22 +7088,25 @@
         <v>8</v>
       </c>
       <c r="F37">
-        <v>9</v>
-      </c>
-      <c r="G37" t="s">
+        <v>123</v>
+      </c>
+      <c r="G37">
+        <v>9</v>
+      </c>
+      <c r="H37" t="s">
         <v>71</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>73</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>75</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>34</v>
       </c>
@@ -6993,22 +7123,25 @@
         <v>8</v>
       </c>
       <c r="F38">
-        <v>9</v>
-      </c>
-      <c r="G38" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38">
+        <v>9</v>
+      </c>
+      <c r="H38" t="s">
         <v>73</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>75</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>77</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>35</v>
       </c>
@@ -7025,22 +7158,25 @@
         <v>8</v>
       </c>
       <c r="F39">
-        <v>9</v>
-      </c>
-      <c r="G39" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39">
+        <v>9</v>
+      </c>
+      <c r="H39" t="s">
         <v>75</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>77</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>79</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>36</v>
       </c>
@@ -7057,22 +7193,25 @@
         <v>8</v>
       </c>
       <c r="F40">
-        <v>9</v>
-      </c>
-      <c r="G40" t="s">
+        <v>123</v>
+      </c>
+      <c r="G40">
+        <v>9</v>
+      </c>
+      <c r="H40" t="s">
         <v>77</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>79</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>81</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>37</v>
       </c>
@@ -7089,22 +7228,25 @@
         <v>8</v>
       </c>
       <c r="F41">
-        <v>9</v>
-      </c>
-      <c r="G41" t="s">
+        <v>123</v>
+      </c>
+      <c r="G41">
+        <v>9</v>
+      </c>
+      <c r="H41" t="s">
         <v>79</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>81</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>83</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>38</v>
       </c>
@@ -7121,22 +7263,25 @@
         <v>8</v>
       </c>
       <c r="F42">
-        <v>9</v>
-      </c>
-      <c r="G42" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42">
+        <v>9</v>
+      </c>
+      <c r="H42" t="s">
         <v>81</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>83</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>85</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>39</v>
       </c>
@@ -7153,22 +7298,25 @@
         <v>8</v>
       </c>
       <c r="F43">
-        <v>9</v>
-      </c>
-      <c r="G43" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43">
+        <v>9</v>
+      </c>
+      <c r="H43" t="s">
         <v>83</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>85</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>87</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>40</v>
       </c>
@@ -7185,22 +7333,25 @@
         <v>8</v>
       </c>
       <c r="F44">
-        <v>9</v>
-      </c>
-      <c r="G44" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44">
+        <v>9</v>
+      </c>
+      <c r="H44" t="s">
         <v>85</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>87</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>89</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>41</v>
       </c>
@@ -7217,22 +7368,25 @@
         <v>8</v>
       </c>
       <c r="F45">
-        <v>9</v>
-      </c>
-      <c r="G45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G45">
+        <v>9</v>
+      </c>
+      <c r="H45" t="s">
         <v>87</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>89</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>91</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>42</v>
       </c>
@@ -7249,22 +7403,25 @@
         <v>8</v>
       </c>
       <c r="F46">
-        <v>9</v>
-      </c>
-      <c r="G46" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46">
+        <v>9</v>
+      </c>
+      <c r="H46" t="s">
         <v>89</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>91</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>93</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>43</v>
       </c>
@@ -7281,22 +7438,25 @@
         <v>8</v>
       </c>
       <c r="F47">
-        <v>9</v>
-      </c>
-      <c r="G47" t="s">
+        <v>123</v>
+      </c>
+      <c r="G47">
+        <v>9</v>
+      </c>
+      <c r="H47" t="s">
         <v>91</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>93</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>95</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>44</v>
       </c>
@@ -7313,22 +7473,25 @@
         <v>8</v>
       </c>
       <c r="F48">
-        <v>9</v>
-      </c>
-      <c r="G48" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48">
+        <v>9</v>
+      </c>
+      <c r="H48" t="s">
         <v>93</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>95</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>97</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>45</v>
       </c>
@@ -7345,22 +7508,25 @@
         <v>8</v>
       </c>
       <c r="F49">
-        <v>9</v>
-      </c>
-      <c r="G49" t="s">
+        <v>123</v>
+      </c>
+      <c r="G49">
+        <v>9</v>
+      </c>
+      <c r="H49" t="s">
         <v>95</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>97</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>99</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>46</v>
       </c>
@@ -7377,35 +7543,41 @@
         <v>8</v>
       </c>
       <c r="F50">
-        <v>9</v>
-      </c>
-      <c r="G50" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50">
+        <v>9</v>
+      </c>
+      <c r="H50" t="s">
         <v>97</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>99</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>101</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>47</v>
       </c>
-      <c r="G51" t="s">
+      <c r="F51">
+        <v>123</v>
+      </c>
+      <c r="H51" t="s">
         <v>99</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>101</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>103</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>104</v>
       </c>
     </row>

--- a/Table/Table/TEST.xlsx
+++ b/Table/Table/TEST.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="134">
   <si>
     <t>client</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,6 +426,22 @@
   </si>
   <si>
     <t>fff0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段700</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[10]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fff6</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -5802,19 +5818,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5831,11 +5847,11 @@
         <v>126</v>
       </c>
       <c r="G1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
@@ -5845,8 +5861,11 @@
       <c r="K1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>115</v>
       </c>
@@ -5866,22 +5885,25 @@
         <v>108</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -5901,22 +5923,25 @@
         <v>128</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -5936,22 +5961,25 @@
         <v>129</v>
       </c>
       <c r="G4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" t="s">
         <v>120</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>121</v>
       </c>
-      <c r="I4" t="s">
-        <v>5</v>
-      </c>
       <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
         <v>122</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5971,22 +5999,25 @@
         <v>123</v>
       </c>
       <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
         <v>111</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>112</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>12</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>2</v>
       </c>
@@ -6006,22 +6037,25 @@
         <v>123</v>
       </c>
       <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
         <v>112</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>11</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>13</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>3</v>
       </c>
@@ -6041,22 +6075,25 @@
         <v>123</v>
       </c>
       <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
         <v>11</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>13</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>15</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>4</v>
       </c>
@@ -6076,22 +6113,25 @@
         <v>123</v>
       </c>
       <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
         <v>13</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>15</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>17</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>5</v>
       </c>
@@ -6111,22 +6151,25 @@
         <v>123</v>
       </c>
       <c r="G9">
-        <v>9</v>
-      </c>
-      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
         <v>15</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>17</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>19</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>6</v>
       </c>
@@ -6146,22 +6189,25 @@
         <v>123</v>
       </c>
       <c r="G10">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
         <v>17</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>19</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>21</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>7</v>
       </c>
@@ -6181,22 +6227,25 @@
         <v>123</v>
       </c>
       <c r="G11">
-        <v>9</v>
-      </c>
-      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
         <v>19</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>21</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>23</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>8</v>
       </c>
@@ -6216,22 +6265,25 @@
         <v>123</v>
       </c>
       <c r="G12">
-        <v>9</v>
-      </c>
-      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
         <v>21</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>23</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>25</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>9</v>
       </c>
@@ -6251,22 +6303,25 @@
         <v>123</v>
       </c>
       <c r="G13">
-        <v>9</v>
-      </c>
-      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
         <v>23</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>25</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>27</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>10</v>
       </c>
@@ -6286,22 +6341,25 @@
         <v>123</v>
       </c>
       <c r="G14">
-        <v>9</v>
-      </c>
-      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14" t="s">
         <v>25</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>27</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>29</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>11</v>
       </c>
@@ -6321,22 +6379,25 @@
         <v>123</v>
       </c>
       <c r="G15">
-        <v>9</v>
-      </c>
-      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
         <v>27</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>29</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>31</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>12</v>
       </c>
@@ -6356,22 +6417,25 @@
         <v>123</v>
       </c>
       <c r="G16">
-        <v>9</v>
-      </c>
-      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16" t="s">
         <v>29</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>31</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>33</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>13</v>
       </c>
@@ -6391,22 +6455,25 @@
         <v>123</v>
       </c>
       <c r="G17">
-        <v>9</v>
-      </c>
-      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+      <c r="I17" t="s">
         <v>31</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>33</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>35</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>14</v>
       </c>
@@ -6426,22 +6493,25 @@
         <v>123</v>
       </c>
       <c r="G18">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <v>9</v>
+      </c>
+      <c r="I18" t="s">
         <v>33</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>35</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>37</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>15</v>
       </c>
@@ -6461,22 +6531,25 @@
         <v>123</v>
       </c>
       <c r="G19">
-        <v>9</v>
-      </c>
-      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="I19" t="s">
         <v>35</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>37</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>39</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>16</v>
       </c>
@@ -6496,22 +6569,25 @@
         <v>123</v>
       </c>
       <c r="G20">
-        <v>9</v>
-      </c>
-      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20">
+        <v>9</v>
+      </c>
+      <c r="I20" t="s">
         <v>37</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>39</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>41</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>17</v>
       </c>
@@ -6531,22 +6607,25 @@
         <v>123</v>
       </c>
       <c r="G21">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21">
+        <v>9</v>
+      </c>
+      <c r="I21" t="s">
         <v>39</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>41</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>43</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>18</v>
       </c>
@@ -6566,22 +6645,25 @@
         <v>123</v>
       </c>
       <c r="G22">
-        <v>9</v>
-      </c>
-      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22" t="s">
         <v>41</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>43</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>45</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>19</v>
       </c>
@@ -6601,22 +6683,25 @@
         <v>123</v>
       </c>
       <c r="G23">
-        <v>9</v>
-      </c>
-      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23">
+        <v>9</v>
+      </c>
+      <c r="I23" t="s">
         <v>43</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>45</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>47</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>20</v>
       </c>
@@ -6636,22 +6721,25 @@
         <v>123</v>
       </c>
       <c r="G24">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24">
+        <v>9</v>
+      </c>
+      <c r="I24" t="s">
         <v>45</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>47</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>49</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>21</v>
       </c>
@@ -6671,22 +6759,25 @@
         <v>123</v>
       </c>
       <c r="G25">
-        <v>9</v>
-      </c>
-      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+      <c r="I25" t="s">
         <v>47</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>49</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>51</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>22</v>
       </c>
@@ -6706,22 +6797,25 @@
         <v>123</v>
       </c>
       <c r="G26">
-        <v>9</v>
-      </c>
-      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26">
+        <v>9</v>
+      </c>
+      <c r="I26" t="s">
         <v>49</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>51</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>53</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>23</v>
       </c>
@@ -6741,22 +6835,25 @@
         <v>123</v>
       </c>
       <c r="G27">
-        <v>9</v>
-      </c>
-      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+      <c r="I27" t="s">
         <v>51</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>53</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>55</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>24</v>
       </c>
@@ -6776,22 +6873,25 @@
         <v>123</v>
       </c>
       <c r="G28">
-        <v>9</v>
-      </c>
-      <c r="H28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28">
+        <v>9</v>
+      </c>
+      <c r="I28" t="s">
         <v>53</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>55</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>57</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>25</v>
       </c>
@@ -6811,22 +6911,25 @@
         <v>123</v>
       </c>
       <c r="G29">
-        <v>9</v>
-      </c>
-      <c r="H29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29">
+        <v>9</v>
+      </c>
+      <c r="I29" t="s">
         <v>55</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>57</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>59</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>26</v>
       </c>
@@ -6846,22 +6949,25 @@
         <v>123</v>
       </c>
       <c r="G30">
-        <v>9</v>
-      </c>
-      <c r="H30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30">
+        <v>9</v>
+      </c>
+      <c r="I30" t="s">
         <v>57</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>59</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>61</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>27</v>
       </c>
@@ -6881,22 +6987,25 @@
         <v>123</v>
       </c>
       <c r="G31">
-        <v>9</v>
-      </c>
-      <c r="H31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31">
+        <v>9</v>
+      </c>
+      <c r="I31" t="s">
         <v>59</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>61</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>63</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>28</v>
       </c>
@@ -6916,22 +7025,25 @@
         <v>123</v>
       </c>
       <c r="G32">
-        <v>9</v>
-      </c>
-      <c r="H32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32">
+        <v>9</v>
+      </c>
+      <c r="I32" t="s">
         <v>61</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>63</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>65</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>29</v>
       </c>
@@ -6951,22 +7063,25 @@
         <v>123</v>
       </c>
       <c r="G33">
-        <v>9</v>
-      </c>
-      <c r="H33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33">
+        <v>9</v>
+      </c>
+      <c r="I33" t="s">
         <v>63</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>65</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>67</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>30</v>
       </c>
@@ -6986,22 +7101,25 @@
         <v>123</v>
       </c>
       <c r="G34">
-        <v>9</v>
-      </c>
-      <c r="H34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34">
+        <v>9</v>
+      </c>
+      <c r="I34" t="s">
         <v>65</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>67</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>69</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>31</v>
       </c>
@@ -7021,22 +7139,25 @@
         <v>123</v>
       </c>
       <c r="G35">
-        <v>9</v>
-      </c>
-      <c r="H35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35">
+        <v>9</v>
+      </c>
+      <c r="I35" t="s">
         <v>67</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>69</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>71</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>32</v>
       </c>
@@ -7056,22 +7177,25 @@
         <v>123</v>
       </c>
       <c r="G36">
-        <v>9</v>
-      </c>
-      <c r="H36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36">
+        <v>9</v>
+      </c>
+      <c r="I36" t="s">
         <v>69</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>71</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>73</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>33</v>
       </c>
@@ -7091,22 +7215,25 @@
         <v>123</v>
       </c>
       <c r="G37">
-        <v>9</v>
-      </c>
-      <c r="H37" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37">
+        <v>9</v>
+      </c>
+      <c r="I37" t="s">
         <v>71</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>73</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>75</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>34</v>
       </c>
@@ -7126,22 +7253,25 @@
         <v>123</v>
       </c>
       <c r="G38">
-        <v>9</v>
-      </c>
-      <c r="H38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38">
+        <v>9</v>
+      </c>
+      <c r="I38" t="s">
         <v>73</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>75</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>77</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>35</v>
       </c>
@@ -7161,22 +7291,25 @@
         <v>123</v>
       </c>
       <c r="G39">
-        <v>9</v>
-      </c>
-      <c r="H39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39">
+        <v>9</v>
+      </c>
+      <c r="I39" t="s">
         <v>75</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>77</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>79</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>36</v>
       </c>
@@ -7196,22 +7329,25 @@
         <v>123</v>
       </c>
       <c r="G40">
-        <v>9</v>
-      </c>
-      <c r="H40" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40">
+        <v>9</v>
+      </c>
+      <c r="I40" t="s">
         <v>77</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>79</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>81</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>37</v>
       </c>
@@ -7231,22 +7367,25 @@
         <v>123</v>
       </c>
       <c r="G41">
-        <v>9</v>
-      </c>
-      <c r="H41" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41">
+        <v>9</v>
+      </c>
+      <c r="I41" t="s">
         <v>79</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>81</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>83</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>38</v>
       </c>
@@ -7266,22 +7405,25 @@
         <v>123</v>
       </c>
       <c r="G42">
-        <v>9</v>
-      </c>
-      <c r="H42" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42">
+        <v>9</v>
+      </c>
+      <c r="I42" t="s">
         <v>81</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>83</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>85</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>39</v>
       </c>
@@ -7301,22 +7443,25 @@
         <v>123</v>
       </c>
       <c r="G43">
-        <v>9</v>
-      </c>
-      <c r="H43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43">
+        <v>9</v>
+      </c>
+      <c r="I43" t="s">
         <v>83</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>85</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>87</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>40</v>
       </c>
@@ -7336,22 +7481,25 @@
         <v>123</v>
       </c>
       <c r="G44">
-        <v>9</v>
-      </c>
-      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44">
+        <v>9</v>
+      </c>
+      <c r="I44" t="s">
         <v>85</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>87</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>89</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>41</v>
       </c>
@@ -7371,22 +7519,25 @@
         <v>123</v>
       </c>
       <c r="G45">
-        <v>9</v>
-      </c>
-      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45">
+        <v>9</v>
+      </c>
+      <c r="I45" t="s">
         <v>87</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>89</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>91</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>42</v>
       </c>
@@ -7406,22 +7557,25 @@
         <v>123</v>
       </c>
       <c r="G46">
-        <v>9</v>
-      </c>
-      <c r="H46" t="s">
+        <v>48</v>
+      </c>
+      <c r="H46">
+        <v>9</v>
+      </c>
+      <c r="I46" t="s">
         <v>89</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>91</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>93</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>43</v>
       </c>
@@ -7441,22 +7595,25 @@
         <v>123</v>
       </c>
       <c r="G47">
-        <v>9</v>
-      </c>
-      <c r="H47" t="s">
+        <v>49</v>
+      </c>
+      <c r="H47">
+        <v>9</v>
+      </c>
+      <c r="I47" t="s">
         <v>91</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>93</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>95</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>44</v>
       </c>
@@ -7476,22 +7633,25 @@
         <v>123</v>
       </c>
       <c r="G48">
-        <v>9</v>
-      </c>
-      <c r="H48" t="s">
+        <v>50</v>
+      </c>
+      <c r="H48">
+        <v>9</v>
+      </c>
+      <c r="I48" t="s">
         <v>93</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>95</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>97</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>45</v>
       </c>
@@ -7511,22 +7671,25 @@
         <v>123</v>
       </c>
       <c r="G49">
-        <v>9</v>
-      </c>
-      <c r="H49" t="s">
+        <v>51</v>
+      </c>
+      <c r="H49">
+        <v>9</v>
+      </c>
+      <c r="I49" t="s">
         <v>95</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>97</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>99</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>46</v>
       </c>
@@ -7546,38 +7709,44 @@
         <v>123</v>
       </c>
       <c r="G50">
-        <v>9</v>
-      </c>
-      <c r="H50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50">
+        <v>9</v>
+      </c>
+      <c r="I50" t="s">
         <v>97</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>99</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>101</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>47</v>
       </c>
       <c r="F51">
         <v>123</v>
       </c>
-      <c r="H51" t="s">
+      <c r="G51">
+        <v>53</v>
+      </c>
+      <c r="I51" t="s">
         <v>99</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>101</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>103</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>104</v>
       </c>
     </row>
